--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D27AF-8E25-4EFD-8E67-F8AFC21A674F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81020C5F-4987-411F-A7E0-9A0EEC7EAF01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="449">
   <si>
     <t>Action</t>
   </si>
@@ -1379,6 +1379,15 @@
   <si>
     <t>Switch interupt</t>
   </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Pin state</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
 </sst>
 </file>
 
@@ -30175,7 +30184,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30835,10 +30844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30982,23 +30991,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="E7" s="50"/>
+        <v>447</v>
+      </c>
       <c r="F7" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>365</v>
+        <v>294</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -31006,7 +31011,7 @@
         <v>268</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>399</v>
@@ -31016,7 +31021,7 @@
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>365</v>
@@ -31024,20 +31029,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="33"/>
+        <v>400</v>
+      </c>
+      <c r="E9" s="50"/>
       <c r="F9" s="33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G9" s="43" t="s">
         <v>365</v>
@@ -31048,7 +31053,7 @@
         <v>271</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>272</v>
@@ -31058,7 +31063,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G10" s="43" t="s">
         <v>365</v>
@@ -31066,20 +31071,20 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="33" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>261</v>
+        <v>315</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>272</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E11" s="33"/>
-      <c r="F11" s="56" t="s">
-        <v>276</v>
+      <c r="F11" s="33" t="s">
+        <v>274</v>
       </c>
       <c r="G11" s="43" t="s">
         <v>365</v>
@@ -31090,7 +31095,7 @@
         <v>98</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>261</v>
@@ -31100,7 +31105,7 @@
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>365</v>
@@ -31111,7 +31116,7 @@
         <v>98</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>261</v>
@@ -31121,7 +31126,7 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>365</v>
@@ -31132,7 +31137,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>261</v>
@@ -31142,7 +31147,7 @@
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>365</v>
@@ -31153,7 +31158,7 @@
         <v>98</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>261</v>
@@ -31163,7 +31168,7 @@
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>365</v>
@@ -31174,7 +31179,7 @@
         <v>98</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>261</v>
@@ -31184,7 +31189,7 @@
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="56" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>365</v>
@@ -31195,7 +31200,7 @@
         <v>98</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>261</v>
@@ -31205,7 +31210,7 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G17" s="43" t="s">
         <v>365</v>
@@ -31216,7 +31221,7 @@
         <v>98</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>261</v>
@@ -31226,7 +31231,7 @@
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="56" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>365</v>
@@ -31237,7 +31242,7 @@
         <v>98</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>261</v>
@@ -31247,7 +31252,7 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="56" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>365</v>
@@ -31258,7 +31263,7 @@
         <v>98</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>261</v>
@@ -31268,7 +31273,7 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>365</v>
@@ -31279,7 +31284,7 @@
         <v>98</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>261</v>
@@ -31289,7 +31294,7 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>365</v>
@@ -31300,7 +31305,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>261</v>
@@ -31310,7 +31315,7 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>365</v>
@@ -31321,7 +31326,7 @@
         <v>98</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>261</v>
@@ -31331,7 +31336,7 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G23" s="43" t="s">
         <v>365</v>
@@ -31342,7 +31347,7 @@
         <v>98</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>261</v>
@@ -31352,7 +31357,7 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>365</v>
@@ -31363,7 +31368,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>261</v>
@@ -31373,48 +31378,52 @@
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G25" s="43" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C27" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D27" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56" t="s">
+      <c r="E27" s="56"/>
+      <c r="F27" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G27" s="57" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>383</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -31422,13 +31431,13 @@
         <v>371</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C28" s="51" t="s">
         <v>384</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>386</v>
@@ -31436,19 +31445,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>210</v>
+        <v>384</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -31456,26 +31465,43 @@
         <v>433</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="33"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="33"/>
-      <c r="F31" s="33"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D34" s="55"/>
+      <c r="A31" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="33"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="33"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D35" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -37411,8 +37437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1006EC9-F903-45E1-9B2E-3BBE97776EFB}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81020C5F-4987-411F-A7E0-9A0EEC7EAF01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B449C24-E53A-4DB3-93D5-CC12855463C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Transmitted from Microbit" sheetId="6" r:id="rId2"/>
-    <sheet name="Recieved on Microbit" sheetId="5" r:id="rId3"/>
-    <sheet name="Actions" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="SN2 Pins" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="SN7 Pins" sheetId="8" r:id="rId6"/>
-    <sheet name="SN3 Pins" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="SN1 - Space Rocket" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="TODO" sheetId="9" r:id="rId2"/>
+    <sheet name="Transmitted from Microbit" sheetId="6" r:id="rId3"/>
+    <sheet name="Recieved on Microbit" sheetId="5" r:id="rId4"/>
+    <sheet name="Actions" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="SN2 Pins" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="SN7 Pins" sheetId="8" r:id="rId7"/>
+    <sheet name="SN3 Pins" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="SN1 - Space Rocket" sheetId="4" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="450">
   <si>
     <t>Action</t>
   </si>
@@ -1356,15 +1357,6 @@
     <t>E0</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>UART</t>
-  </si>
-  <si>
-    <t>Requests next message from ESP32</t>
-  </si>
-  <si>
     <t>BBC Microbit i2c SDA</t>
   </si>
   <si>
@@ -1380,13 +1372,25 @@
     <t>Switch interupt</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>Reset SX1509 for lights when SN7 starts</t>
   </si>
   <si>
-    <t>Pin state</t>
+    <t>Add a reset method for SX1509 lights</t>
   </si>
   <si>
-    <t>---</t>
+    <t>Check the flash times are the correct way around</t>
+  </si>
+  <si>
+    <t>Wifi SSID and password - need to allow spaces¬!</t>
+  </si>
+  <si>
+    <t>Connect EN pin to Microbit</t>
+  </si>
+  <si>
+    <t>RESTART</t>
+  </si>
+  <si>
+    <t>Resets the ESP32</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,6 +1504,12 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1617,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1708,10 +1718,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30180,11 +30187,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A2B5-CFDE-4DC2-BBB1-53E30A1E757A}">
+  <dimension ref="B2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30793,20 +30840,15 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="59" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="61" t="s">
-        <v>440</v>
-      </c>
-      <c r="E35" s="56" t="s">
-        <v>439</v>
-      </c>
+    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="33"/>
+      <c r="B35" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="33"/>
@@ -30826,14 +30868,8 @@
       <c r="D38" s="52"/>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="33"/>
-      <c r="B39" s="47"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="33"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D40" s="43"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D39" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -30842,12 +30878,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30991,19 +31027,23 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>446</v>
+        <v>312</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>399</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>447</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="E7" s="50"/>
       <c r="F7" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>448</v>
+        <v>269</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -31011,7 +31051,7 @@
         <v>268</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>399</v>
@@ -31021,7 +31061,7 @@
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>365</v>
@@ -31029,20 +31069,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="E9" s="50"/>
+        <v>275</v>
+      </c>
+      <c r="E9" s="33"/>
       <c r="F9" s="33" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G9" s="43" t="s">
         <v>365</v>
@@ -31053,7 +31093,7 @@
         <v>271</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>272</v>
@@ -31063,7 +31103,7 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G10" s="43" t="s">
         <v>365</v>
@@ -31071,20 +31111,20 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="33" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>272</v>
+        <v>316</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>261</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E11" s="33"/>
-      <c r="F11" s="33" t="s">
-        <v>274</v>
+      <c r="F11" s="56" t="s">
+        <v>276</v>
       </c>
       <c r="G11" s="43" t="s">
         <v>365</v>
@@ -31095,7 +31135,7 @@
         <v>98</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>261</v>
@@ -31105,7 +31145,7 @@
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>365</v>
@@ -31116,7 +31156,7 @@
         <v>98</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>261</v>
@@ -31126,7 +31166,7 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>365</v>
@@ -31137,7 +31177,7 @@
         <v>98</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>261</v>
@@ -31147,7 +31187,7 @@
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>365</v>
@@ -31158,7 +31198,7 @@
         <v>98</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>261</v>
@@ -31168,7 +31208,7 @@
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="56" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>365</v>
@@ -31179,7 +31219,7 @@
         <v>98</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>261</v>
@@ -31189,7 +31229,7 @@
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>365</v>
@@ -31200,7 +31240,7 @@
         <v>98</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>261</v>
@@ -31210,7 +31250,7 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G17" s="43" t="s">
         <v>365</v>
@@ -31221,7 +31261,7 @@
         <v>98</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>261</v>
@@ -31231,7 +31271,7 @@
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="56" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>365</v>
@@ -31242,7 +31282,7 @@
         <v>98</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>261</v>
@@ -31252,7 +31292,7 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="56" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>365</v>
@@ -31263,7 +31303,7 @@
         <v>98</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>261</v>
@@ -31273,7 +31313,7 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="56" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>365</v>
@@ -31284,7 +31324,7 @@
         <v>98</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>261</v>
@@ -31294,7 +31334,7 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="56" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>365</v>
@@ -31305,7 +31345,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>261</v>
@@ -31315,7 +31355,7 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="56" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>365</v>
@@ -31326,7 +31366,7 @@
         <v>98</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>261</v>
@@ -31336,7 +31376,7 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G23" s="43" t="s">
         <v>365</v>
@@ -31347,7 +31387,7 @@
         <v>98</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>261</v>
@@ -31357,7 +31397,7 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>365</v>
@@ -31368,7 +31408,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>261</v>
@@ -31378,52 +31418,48 @@
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="56" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G25" s="43" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="G26" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="57" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>365</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -31431,13 +31467,13 @@
         <v>371</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C28" s="51" t="s">
         <v>384</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>386</v>
@@ -31445,19 +31481,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>384</v>
+        <v>210</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>386</v>
+        <v>410</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -31465,43 +31504,29 @@
         <v>433</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F30" s="33" t="s">
         <v>410</v>
       </c>
+      <c r="G30" s="43" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="33"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="33"/>
-      <c r="F32" s="33"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D35" s="55"/>
+      <c r="A31" s="33"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="33"/>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D34" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -31510,7 +31535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
@@ -33216,7 +33241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G999"/>
   <sheetViews>
@@ -37433,12 +37458,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1006EC9-F903-45E1-9B2E-3BBE97776EFB}">
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -37482,7 +37507,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="53" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>35</v>
@@ -37496,7 +37521,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="53" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>40</v>
@@ -37511,7 +37536,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="53" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>55</v>
@@ -37566,7 +37591,7 @@
         <v>90</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -37581,7 +37606,7 @@
         <v>97</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -37774,6 +37799,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5"/>
@@ -41646,12 +41672,12 @@
     <hyperlink ref="F27" r:id="rId1" xr:uid="{45252DE3-3E08-4DFD-9619-6FE245D06E33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD88664-34A0-4C04-88F9-A32CE8893927}">
   <dimension ref="A1:F999"/>
   <sheetViews>
@@ -45819,7 +45845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB0B404-7701-418E-A57A-EB6147A91B31}">
   <dimension ref="A1:C8"/>
   <sheetViews>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B449C24-E53A-4DB3-93D5-CC12855463C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1DC03B-04AD-4D8D-90E2-1FB5804DEEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="449">
   <si>
     <t>Action</t>
   </si>
@@ -1381,16 +1381,13 @@
     <t>Check the flash times are the correct way around</t>
   </si>
   <si>
-    <t>Wifi SSID and password - need to allow spaces¬!</t>
-  </si>
-  <si>
-    <t>Connect EN pin to Microbit</t>
-  </si>
-  <si>
     <t>RESTART</t>
   </si>
   <si>
     <t>Resets the ESP32</t>
+  </si>
+  <si>
+    <t>add a reset method</t>
   </si>
 </sst>
 </file>
@@ -30188,10 +30185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A2B5-CFDE-4DC2-BBB1-53E30A1E757A}">
-  <dimension ref="B2:B12"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30211,14 +30208,9 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>447</v>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -30230,7 +30222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -30843,10 +30835,10 @@
     <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="33"/>
       <c r="B35" s="47" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E35" s="33"/>
     </row>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1DC03B-04AD-4D8D-90E2-1FB5804DEEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C296C43-0A5A-44AA-9C70-311890D71DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -30187,7 +30187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A2B5-CFDE-4DC2-BBB1-53E30A1E757A}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -30222,8 +30222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C296C43-0A5A-44AA-9C70-311890D71DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FAF7ED-79B5-40B4-9215-DC6C3FC221D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="451">
   <si>
     <t>Action</t>
   </si>
@@ -1389,6 +1389,12 @@
   <si>
     <t>add a reset method</t>
   </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Turns off all LEDs (resets controller)</t>
+  </si>
 </sst>
 </file>
 
@@ -30220,10 +30226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30486,30 +30492,26 @@
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="33" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>353</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C14" s="51"/>
       <c r="D14" s="52" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>365</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>353</v>
@@ -30518,29 +30520,29 @@
         <v>356</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="54" t="s">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="43" t="s">
         <v>365</v>
       </c>
     </row>
@@ -30549,36 +30551,39 @@
         <v>271</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C17" s="54" t="s">
         <v>360</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F17" s="54" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>375</v>
+    <row r="18" spans="1:6" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30586,13 +30591,13 @@
         <v>371</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>375</v>
@@ -30603,13 +30608,13 @@
         <v>371</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>375</v>
@@ -30620,13 +30625,13 @@
         <v>371</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>428</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>375</v>
@@ -30637,13 +30642,13 @@
         <v>371</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>428</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>375</v>
@@ -30654,13 +30659,13 @@
         <v>371</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>375</v>
@@ -30668,19 +30673,19 @@
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33" t="s">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>269</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30688,7 +30693,7 @@
         <v>151</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>360</v>
@@ -30697,63 +30702,66 @@
         <v>402</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="33" t="s">
-        <v>404</v>
+        <v>151</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>411</v>
+        <v>403</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>360</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="33" t="s">
         <v>404</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>407</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>414</v>
+      <c r="B28" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>412</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="33" t="s">
         <v>404</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>414</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>410</v>
@@ -30764,10 +30772,10 @@
         <v>404</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>410</v>
@@ -30778,10 +30786,10 @@
         <v>404</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>410</v>
@@ -30792,10 +30800,10 @@
         <v>404</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>410</v>
@@ -30806,46 +30814,54 @@
         <v>404</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>420</v>
+        <v>423</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>419</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="33" t="s">
         <v>404</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>408</v>
+        <v>424</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>420</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="33"/>
+      <c r="A35" s="33" t="s">
+        <v>404</v>
+      </c>
       <c r="B35" s="47" t="s">
-        <v>446</v>
+        <v>425</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>409</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="E35" s="33"/>
+        <v>408</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="33"/>
-      <c r="B36" s="47"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>447</v>
+      </c>
       <c r="E36" s="33"/>
     </row>
     <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30860,8 +30876,14 @@
       <c r="D38" s="52"/>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D39" s="43"/>
+    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="33"/>
+      <c r="B39" s="47"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D40" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FAF7ED-79B5-40B4-9215-DC6C3FC221D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549F128-E707-4E23-9D83-A32926ADC0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="456">
   <si>
     <t>Action</t>
   </si>
@@ -1395,6 +1395,21 @@
   <si>
     <t>Turns off all LEDs (resets controller)</t>
   </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>subscribe (listen) to a MQTT topic</t>
+  </si>
+  <si>
+    <t>unsubscribe (stop listenning) to a MQTT topic</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
 </sst>
 </file>
 
@@ -30226,10 +30241,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30855,25 +30870,47 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="33"/>
+      <c r="A36" s="33" t="s">
+        <v>404</v>
+      </c>
       <c r="B36" s="47" t="s">
-        <v>446</v>
+        <v>451</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>452</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="E36" s="33"/>
+        <v>453</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="33"/>
-      <c r="B37" s="47"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="33"/>
-      <c r="B38" s="47"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>447</v>
+      </c>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30882,8 +30919,20 @@
       <c r="D39" s="52"/>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D40" s="43"/>
+    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="33"/>
+      <c r="B40" s="47"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="33"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="33"/>
+      <c r="B41" s="47"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D42" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549F128-E707-4E23-9D83-A32926ADC0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62926187-DF96-4311-B73C-2501FDDAE920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="463">
   <si>
     <t>Action</t>
   </si>
@@ -1387,9 +1387,6 @@
     <t>Resets the ESP32</t>
   </si>
   <si>
-    <t>add a reset method</t>
-  </si>
-  <si>
     <t>Y4</t>
   </si>
   <si>
@@ -1409,6 +1406,30 @@
   </si>
   <si>
     <t>T11</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>topic','message'</t>
+  </si>
+  <si>
+    <t>Received message for a topic</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Turn off Wifi</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Turns on all LEDs</t>
+  </si>
+  <si>
+    <t>"SSID","Passphrase"</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1737,6 +1758,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30206,10 +30231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A7A2B5-CFDE-4DC2-BBB1-53E30A1E757A}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30229,11 +30254,6 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>448</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30241,10 +30261,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30510,11 +30530,11 @@
         <v>105</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>346</v>
@@ -30523,30 +30543,26 @@
     </row>
     <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="33" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>353</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C15" s="51"/>
       <c r="D15" s="52" t="s">
-        <v>356</v>
+        <v>461</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>365</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>353</v>
@@ -30555,29 +30571,29 @@
         <v>356</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="54" t="s">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>365</v>
       </c>
     </row>
@@ -30586,36 +30602,39 @@
         <v>271</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C18" s="54" t="s">
         <v>360</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F18" s="54" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>375</v>
+    <row r="19" spans="1:6" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30623,13 +30642,13 @@
         <v>371</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>375</v>
@@ -30640,13 +30659,13 @@
         <v>371</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>375</v>
@@ -30657,13 +30676,13 @@
         <v>371</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>428</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>375</v>
@@ -30674,13 +30693,13 @@
         <v>371</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>428</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>375</v>
@@ -30691,13 +30710,13 @@
         <v>371</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>375</v>
@@ -30705,19 +30724,19 @@
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="33" t="s">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>269</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30725,7 +30744,7 @@
         <v>151</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>360</v>
@@ -30734,63 +30753,69 @@
         <v>402</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="61" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B28" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C28" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D28" s="61" t="s">
         <v>407</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E28" s="61" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="33" t="s">
+    <row r="29" spans="1:6" s="61" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B29" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C29" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E29" s="61" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33" t="s">
         <v>404</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>414</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>410</v>
@@ -30801,10 +30826,10 @@
         <v>404</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>410</v>
@@ -30815,10 +30840,10 @@
         <v>404</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>410</v>
@@ -30829,10 +30854,10 @@
         <v>404</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>410</v>
@@ -30843,27 +30868,24 @@
         <v>404</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>420</v>
+        <v>423</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>419</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="33" t="s">
         <v>404</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>408</v>
+        <v>424</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>420</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>410</v>
@@ -30874,13 +30896,13 @@
         <v>404</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>410</v>
@@ -30891,38 +30913,57 @@
         <v>404</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C37" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="D37" s="52" t="s">
         <v>452</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>454</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="33"/>
+      <c r="A38" s="33" t="s">
+        <v>404</v>
+      </c>
       <c r="B38" s="47" t="s">
-        <v>446</v>
+        <v>454</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>451</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="E38" s="33"/>
+        <v>453</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="33"/>
-      <c r="B39" s="47"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="33"/>
-      <c r="B40" s="47"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>447</v>
+      </c>
       <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30931,8 +30972,20 @@
       <c r="D41" s="52"/>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D42" s="43"/>
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="33"/>
+      <c r="B42" s="47"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="33"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="33"/>
+      <c r="B43" s="47"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="33"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D44" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -30945,8 +30998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -31583,10 +31636,21 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="33"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D34" s="55"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11455C-90A4-429C-8B4F-BF3AC69A800B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165FBD0-43D8-4ECF-AC20-9B57C2B0F6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="438">
   <si>
     <t>Action</t>
   </si>
@@ -1309,9 +1309,6 @@
     <t>G3</t>
   </si>
   <si>
-    <t>topic','message'</t>
-  </si>
-  <si>
     <t>Received message for a topic</t>
   </si>
   <si>
@@ -1348,10 +1345,16 @@
     <t>0-15,ms to complete</t>
   </si>
   <si>
-    <t>Servo 0-15 has stopped due STOP command during easing, timing on the end</t>
+    <t>'topic','message'</t>
   </si>
   <si>
-    <t>Servo 0-15 has stopped after easing completed, timing on the end</t>
+    <t>Servo 0-15 has stopped after easing completed, timing of the loop</t>
+  </si>
+  <si>
+    <t>Servo 0-15 has stopped due STOP command during easing, timing on the loop</t>
+  </si>
+  <si>
+    <t>Expert</t>
   </si>
 </sst>
 </file>
@@ -1584,11 +1587,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1670,20 +1672,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -30182,8 +30186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30465,11 +30469,11 @@
         <v>105</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>315</v>
@@ -30590,37 +30594,37 @@
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:6" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="62" t="s">
         <v>396</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="59" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:6" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="D23" s="52" t="s">
-        <v>397</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="D23" s="62" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" s="59" t="s">
         <v>344</v>
       </c>
     </row>
@@ -30635,7 +30639,7 @@
         <v>395</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>344</v>
@@ -30692,34 +30696,34 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="60" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="60" t="s">
+    <row r="28" spans="1:6" s="57" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="57" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="60" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="60" t="s">
+    <row r="29" spans="1:6" s="57" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="57" t="s">
         <v>377</v>
       </c>
     </row>
@@ -30731,7 +30735,7 @@
         <v>380</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>381</v>
@@ -30866,17 +30870,19 @@
         <v>371</v>
       </c>
       <c r="B39" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="D39" s="52" t="s">
         <v>424</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>425</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="33"/>
+      <c r="A40" s="33" t="s">
+        <v>437</v>
+      </c>
       <c r="B40" s="47" t="s">
         <v>412</v>
       </c>
@@ -30915,10 +30921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30932,7 +30938,7 @@
     <col min="7" max="7" width="8.76171875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="46" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="46" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A1" s="46" t="s">
         <v>258</v>
       </c>
@@ -30955,7 +30961,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>8</v>
       </c>
@@ -30976,7 +30982,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -30997,20 +31003,20 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="49" t="s">
         <v>281</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="33" t="s">
         <v>279</v>
       </c>
@@ -31018,28 +31024,28 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>264</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="43" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="33" t="s">
         <v>87</v>
       </c>
@@ -31052,15 +31058,15 @@
       <c r="D6" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="43" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
         <v>268</v>
       </c>
@@ -31081,7 +31087,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="33" t="s">
         <v>268</v>
       </c>
@@ -31102,7 +31108,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
         <v>271</v>
       </c>
@@ -31115,7 +31121,7 @@
       <c r="D9" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="33" t="s">
         <v>273</v>
       </c>
@@ -31123,7 +31129,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="33" t="s">
         <v>271</v>
       </c>
@@ -31136,7 +31142,7 @@
       <c r="D10" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="33" t="s">
         <v>274</v>
       </c>
@@ -31144,40 +31150,43 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56" t="s">
-        <v>433</v>
-      </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="43" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>434</v>
+      <c r="C12" s="49" t="s">
+        <v>433</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>436</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="E12" s="50"/>
       <c r="F12" s="33" t="s">
         <v>354</v>
       </c>
@@ -31185,19 +31194,20 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>434</v>
+      <c r="C13" s="49" t="s">
+        <v>433</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>435</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="E13" s="50"/>
       <c r="F13" s="33" t="s">
         <v>354</v>
       </c>
@@ -31205,39 +31215,41 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="C14" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="33" t="s">
         <v>354</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
         <v>400</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="49" t="s">
         <v>210</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>403</v>
       </c>
+      <c r="E15" s="50"/>
       <c r="F15" s="33" t="s">
         <v>377</v>
       </c>
@@ -31245,19 +31257,20 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="33" t="s">
         <v>400</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="49" t="s">
         <v>261</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>401</v>
       </c>
+      <c r="E16" s="50"/>
       <c r="F16" s="33" t="s">
         <v>377</v>
       </c>
@@ -31272,12 +31285,13 @@
       <c r="B17" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>423</v>
-      </c>
+      <c r="E17" s="50"/>
       <c r="F17" s="33" t="s">
         <v>377</v>
       </c>
@@ -31285,8 +31299,26 @@
         <v>334</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="33"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="33"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="33"/>
+    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D20" s="55"/>
+      <c r="A20" s="33"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -37559,7 +37591,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="59"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0165FBD0-43D8-4ECF-AC20-9B57C2B0F6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8314BE-D28E-4923-8AE0-B04621011DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="445">
   <si>
     <t>Action</t>
   </si>
@@ -835,9 +835,6 @@
     <t>Value(s)</t>
   </si>
   <si>
-    <t>1-12</t>
-  </si>
-  <si>
     <t>Pin touched</t>
   </si>
   <si>
@@ -1356,6 +1353,30 @@
   <si>
     <t>Expert</t>
   </si>
+  <si>
+    <t>0-11</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>0-50</t>
+  </si>
+  <si>
+    <t>bounce delay</t>
+  </si>
+  <si>
+    <t>0-255,0-255</t>
+  </si>
+  <si>
+    <t>touchThreshold, releaseThreshold (must be lower than touch)</t>
+  </si>
 </sst>
 </file>
 
@@ -1590,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1686,6 +1707,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30164,17 +30188,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -30186,16 +30210,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.37890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.234375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="46.234375" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="3" max="3" width="33.76171875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.1875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30213,10 +30237,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G1" s="46" t="s">
         <v>2</v>
@@ -30227,19 +30251,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -30247,17 +30271,17 @@
         <v>8</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -30265,17 +30289,17 @@
         <v>8</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -30283,19 +30307,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>282</v>
-      </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -30303,17 +30327,17 @@
         <v>8</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -30321,17 +30345,17 @@
         <v>8</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -30339,17 +30363,17 @@
         <v>8</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -30357,17 +30381,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -30375,17 +30399,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30393,19 +30417,19 @@
         <v>105</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="D11" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="E11" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30413,19 +30437,19 @@
         <v>105</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="E12" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30433,19 +30457,19 @@
         <v>105</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C13" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>319</v>
-      </c>
       <c r="E13" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30453,14 +30477,14 @@
         <v>105</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F14" s="43"/>
     </row>
@@ -30469,14 +30493,14 @@
         <v>105</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F15" s="43"/>
     </row>
@@ -30485,19 +30509,19 @@
         <v>166</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>323</v>
-      </c>
       <c r="F16" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30505,161 +30529,161 @@
         <v>166</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>322</v>
-      </c>
       <c r="D17" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>329</v>
-      </c>
       <c r="D18" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="C20" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="D20" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="E20" s="33" t="s">
         <v>343</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C22" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="D22" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="D22" s="62" t="s">
-        <v>396</v>
-      </c>
       <c r="E22" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30667,16 +30691,16 @@
         <v>151</v>
       </c>
       <c r="B26" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>369</v>
-      </c>
       <c r="E26" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -30684,224 +30708,249 @@
         <v>151</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="57" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>372</v>
-      </c>
       <c r="C28" s="58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="57" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B30" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>381</v>
-      </c>
       <c r="E30" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C36" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>376</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>416</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="D37" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="D37" s="52" t="s">
-        <v>418</v>
-      </c>
       <c r="E37" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B39" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="D39" s="52" t="s">
         <v>423</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>424</v>
-      </c>
       <c r="E39" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="33" t="s">
-        <v>437</v>
+        <v>87</v>
       </c>
       <c r="B40" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52" t="s">
         <v>412</v>
       </c>
-      <c r="D40" s="52" t="s">
-        <v>413</v>
-      </c>
-      <c r="E40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="33"/>
-      <c r="B41" s="47"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="33"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="33"/>
-      <c r="B42" s="47"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="33"/>
+      <c r="E42" s="33" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="33"/>
@@ -30924,7 +30973,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30955,10 +31004,10 @@
         <v>260</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -30966,7 +31015,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>261</v>
@@ -30976,10 +31025,10 @@
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -30987,20 +31036,20 @@
         <v>8</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>276</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>277</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -31008,20 +31057,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -31029,20 +31078,20 @@
         <v>87</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>264</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>265</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -31050,104 +31099,104 @@
         <v>87</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>264</v>
+        <v>437</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>366</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>367</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>366</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>367</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>272</v>
-      </c>
       <c r="D9" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>272</v>
-      </c>
       <c r="D10" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
@@ -31155,148 +31204,148 @@
         <v>98</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>430</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>431</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>428</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>429</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>210</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>261</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>421</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>422</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -37255,7 +37304,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -37299,7 +37348,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>35</v>
@@ -37313,7 +37362,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>40</v>
@@ -37328,7 +37377,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>55</v>
@@ -37343,7 +37392,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>62</v>
@@ -37373,7 +37422,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>88</v>
@@ -37383,12 +37432,12 @@
         <v>90</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>96</v>
@@ -37398,12 +37447,12 @@
         <v>97</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>112</v>
@@ -37413,7 +37462,7 @@
         <v>114</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -37428,12 +37477,12 @@
         <v>126</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>130</v>
@@ -37443,12 +37492,12 @@
         <v>131</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>133</v>
@@ -37458,12 +37507,12 @@
         <v>134</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>137</v>
@@ -37473,7 +37522,7 @@
         <v>138</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -41506,7 +41555,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -41578,7 +41627,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -41605,7 +41654,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -41617,7 +41666,7 @@
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -41629,7 +41678,7 @@
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -41641,7 +41690,7 @@
         <v>134</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8314BE-D28E-4923-8AE0-B04621011DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5FCD17-08ED-4565-BC8E-AB702A8F5D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="TODO" sheetId="9" r:id="rId2"/>
+    <sheet name="TODO" sheetId="9" state="hidden" r:id="rId2"/>
     <sheet name="Transmitted from Microbit" sheetId="6" r:id="rId3"/>
     <sheet name="Recieved on Microbit" sheetId="5" r:id="rId4"/>
     <sheet name="Actions" sheetId="2" state="hidden" r:id="rId5"/>
@@ -1225,9 +1225,6 @@
     <t>V6</t>
   </si>
   <si>
-    <t>0 - 15,0-180,0-180,20,minPulse,maxPulse</t>
-  </si>
-  <si>
     <t>ease servo between two angles (0-15) in a linear motion</t>
   </si>
   <si>
@@ -1376,6 +1373,9 @@
   </si>
   <si>
     <t>touchThreshold, releaseThreshold (must be lower than touch)</t>
+  </si>
+  <si>
+    <t>0 - 15,0-180,0-180,seconds,minPulse,maxPulse</t>
   </si>
 </sst>
 </file>
@@ -30181,24 +30181,24 @@
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -30211,7 +30211,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30477,11 +30477,11 @@
         <v>105</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>314</v>
@@ -30493,11 +30493,11 @@
         <v>105</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>314</v>
@@ -30626,10 +30626,10 @@
         <v>345</v>
       </c>
       <c r="C22" s="61" t="s">
+        <v>444</v>
+      </c>
+      <c r="D22" s="62" t="s">
         <v>394</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>395</v>
       </c>
       <c r="E22" s="59" t="s">
         <v>343</v>
@@ -30643,10 +30643,10 @@
         <v>346</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E23" s="59" t="s">
         <v>343</v>
@@ -30660,10 +30660,10 @@
         <v>392</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>343</v>
@@ -30759,7 +30759,7 @@
         <v>379</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>380</v>
@@ -30860,13 +30860,13 @@
         <v>370</v>
       </c>
       <c r="B37" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="D37" s="52" t="s">
         <v>416</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>417</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>376</v>
@@ -30877,13 +30877,13 @@
         <v>370</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>376</v>
@@ -30894,10 +30894,10 @@
         <v>370</v>
       </c>
       <c r="B39" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" s="52" t="s">
         <v>422</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>423</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>376</v>
@@ -30908,13 +30908,13 @@
         <v>87</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D40" s="52" t="s">
         <v>443</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>444</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>277</v>
@@ -30925,13 +30925,13 @@
         <v>87</v>
       </c>
       <c r="B41" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="D41" s="52" t="s">
         <v>441</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>442</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>277</v>
@@ -30939,17 +30939,17 @@
     </row>
     <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C42" s="52"/>
       <c r="D42" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -31081,7 +31081,7 @@
         <v>292</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>264</v>
@@ -31102,7 +31102,7 @@
         <v>293</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>265</v>
@@ -31207,14 +31207,14 @@
         <v>298</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>429</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>430</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G11" s="43" t="s">
         <v>333</v>
@@ -31230,10 +31230,10 @@
         <v>351</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="33" t="s">
@@ -31251,10 +31251,10 @@
         <v>354</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="33" t="s">
@@ -31269,13 +31269,13 @@
         <v>339</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>352</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="33" t="s">
@@ -31287,16 +31287,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>210</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="33" t="s">
@@ -31308,16 +31308,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>261</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="33" t="s">
@@ -31329,16 +31329,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>420</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>421</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="33" t="s">
@@ -37348,7 +37348,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>35</v>
@@ -37362,7 +37362,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>40</v>
@@ -37377,7 +37377,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>55</v>
@@ -37432,7 +37432,7 @@
         <v>90</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -37447,7 +37447,7 @@
         <v>97</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5FCD17-08ED-4565-BC8E-AB702A8F5D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5743F9BF-CB78-4319-BFC1-ACD39435AD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="451">
   <si>
     <t>Action</t>
   </si>
@@ -1377,6 +1377,24 @@
   <si>
     <t>0 - 15,0-180,0-180,seconds,minPulse,maxPulse</t>
   </si>
+  <si>
+    <t>0,1,1,1,2,1,3,1,4,1,5,1,6,1,7,1,8,1,9,1,10,1,11,1,12,1,13,1,14,1,15,0</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>returns button states</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>represent the digital state of all of the pins</t>
+  </si>
 </sst>
 </file>
 
@@ -30208,10 +30226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30937,29 +30955,44 @@
         <v>277</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B43" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E43" s="33" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="33"/>
-      <c r="B43" s="47"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="33"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D44" s="43"/>
+    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="33"/>
+      <c r="B44" s="47"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D45" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -30970,10 +31003,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -31222,39 +31255,39 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="33" t="s">
-        <v>339</v>
+        <v>98</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>351</v>
+        <v>446</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>333</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12"/>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="33" t="s">
         <v>339</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>431</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="33" t="s">
@@ -31269,13 +31302,13 @@
         <v>339</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>426</v>
+        <v>354</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="33" t="s">
@@ -31287,20 +31320,20 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>210</v>
+        <v>352</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="33" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>333</v>
@@ -31311,13 +31344,13 @@
         <v>398</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="33" t="s">
@@ -31332,13 +31365,13 @@
         <v>398</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>432</v>
+        <v>261</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="33" t="s">
@@ -31349,11 +31382,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="33"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>420</v>
+      </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="33"/>
@@ -31368,6 +31415,36 @@
       <c r="D20" s="33"/>
       <c r="E20" s="50"/>
       <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="33"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <f>LEN("0,0,0,0,0,0,0,0,0,0,0,0,0,0,0")</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <f>LEN("0,1,1,1,2,1,3,1,4,1,5,1,6,1,7,1,8,1,9,1,10,1,11,1,12,1,13,1,14,1,15,0")</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <f>69*8</f>
+        <v>552</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5743F9BF-CB78-4319-BFC1-ACD39435AD83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1D161-1AD8-4C97-B305-655855DBB78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="452">
   <si>
     <t>Action</t>
   </si>
@@ -1378,9 +1378,6 @@
     <t>0 - 15,0-180,0-180,seconds,minPulse,maxPulse</t>
   </si>
   <si>
-    <t>0,1,1,1,2,1,3,1,4,1,5,1,6,1,7,1,8,1,9,1,10,1,11,1,12,1,13,1,14,1,15,0</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
@@ -1394,6 +1391,12 @@
   </si>
   <si>
     <t>represent the digital state of all of the pins</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Queue emptied</t>
   </si>
 </sst>
 </file>
@@ -30960,11 +30963,11 @@
         <v>98</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="33" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>430</v>
@@ -31003,10 +31006,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -31260,13 +31263,13 @@
         <v>98</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C12" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>449</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>450</v>
       </c>
       <c r="E12" s="50"/>
       <c r="F12" s="33" t="s">
@@ -31403,11 +31406,20 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="33"/>
+      <c r="A19" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>450</v>
+      </c>
       <c r="C19" s="49"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>451</v>
+      </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="33"/>
@@ -31422,29 +31434,6 @@
       <c r="D21" s="33"/>
       <c r="E21" s="50"/>
       <c r="F21" s="33"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D28">
-        <f>LEN("0,0,0,0,0,0,0,0,0,0,0,0,0,0,0")</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D29">
-        <f>LEN("0,1,1,1,2,1,3,1,4,1,5,1,6,1,7,1,8,1,9,1,10,1,11,1,12,1,13,1,14,1,15,0")</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D31">
-        <f>69*8</f>
-        <v>552</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1D161-1AD8-4C97-B305-655855DBB78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52985F-690E-489A-940C-6364F885CBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="453">
   <si>
     <t>Action</t>
   </si>
@@ -1398,6 +1398,9 @@
   <si>
     <t>Queue emptied</t>
   </si>
+  <si>
+    <t>CLEARQ</t>
+  </si>
 </sst>
 </file>
 
@@ -30231,8 +30234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30989,8 +30992,12 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="33"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>452</v>
+      </c>
       <c r="D44" s="52"/>
       <c r="E44" s="33"/>
     </row>
@@ -31008,8 +31015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B52985F-690E-489A-940C-6364F885CBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1D161-1AD8-4C97-B305-655855DBB78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="452">
   <si>
     <t>Action</t>
   </si>
@@ -1398,9 +1398,6 @@
   <si>
     <t>Queue emptied</t>
   </si>
-  <si>
-    <t>CLEARQ</t>
-  </si>
 </sst>
 </file>
 
@@ -30234,8 +30231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30992,12 +30989,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>452</v>
-      </c>
+      <c r="A44" s="33"/>
+      <c r="B44" s="47"/>
       <c r="D44" s="52"/>
       <c r="E44" s="33"/>
     </row>
@@ -31015,8 +31008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1D161-1AD8-4C97-B305-655855DBB78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19C5B47-AEFB-4557-A5C6-B650B4395805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="454">
   <si>
     <t>Action</t>
   </si>
@@ -1398,6 +1398,12 @@
   <si>
     <t>Queue emptied</t>
   </si>
+  <si>
+    <t>STARTING</t>
+  </si>
+  <si>
+    <t>Deletes any messages on the i2c queue for the Microbit on the ESP32</t>
+  </si>
 </sst>
 </file>
 
@@ -1632,7 +1638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1703,7 +1709,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1731,6 +1736,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30232,7 +30255,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30460,7 +30483,7 @@
       <c r="B12" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>316</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -30480,10 +30503,10 @@
       <c r="B13" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>318</v>
       </c>
       <c r="E13" s="33" t="s">
@@ -30500,8 +30523,8 @@
       <c r="B14" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>413</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -30516,8 +30539,8 @@
       <c r="B15" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51" t="s">
         <v>424</v>
       </c>
       <c r="E15" s="33" t="s">
@@ -30532,10 +30555,10 @@
       <c r="B16" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>324</v>
       </c>
       <c r="E16" s="33" t="s">
@@ -30552,10 +30575,10 @@
       <c r="B17" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>324</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -30569,10 +30592,10 @@
       <c r="A18" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>328</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -30581,7 +30604,7 @@
       <c r="E18" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="53" t="s">
         <v>333</v>
       </c>
     </row>
@@ -30589,10 +30612,10 @@
       <c r="A19" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="53" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="53" t="s">
         <v>328</v>
       </c>
       <c r="D19" s="34" t="s">
@@ -30601,7 +30624,7 @@
       <c r="E19" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="53" t="s">
         <v>333</v>
       </c>
     </row>
@@ -30612,10 +30635,10 @@
       <c r="B20" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="51" t="s">
         <v>342</v>
       </c>
       <c r="E20" s="33" t="s">
@@ -30629,47 +30652,47 @@
       <c r="B21" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>348</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:6" s="54" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>444</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="55" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:6" s="54" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="60" t="s">
         <v>444</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="61" t="s">
         <v>396</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="58" t="s">
         <v>343</v>
       </c>
     </row>
@@ -30680,10 +30703,10 @@
       <c r="B24" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="51" t="s">
         <v>395</v>
       </c>
       <c r="E24" s="33" t="s">
@@ -30697,10 +30720,10 @@
       <c r="B25" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>347</v>
       </c>
       <c r="E25" s="33" t="s">
@@ -30714,10 +30737,10 @@
       <c r="B26" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="51" t="s">
         <v>368</v>
       </c>
       <c r="E26" s="33" t="s">
@@ -30731,44 +30754,44 @@
       <c r="B27" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="51" t="s">
         <v>368</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="57" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="57" t="s">
+    <row r="28" spans="1:6" s="56" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="56" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="57" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="57" t="s">
+    <row r="29" spans="1:6" s="56" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="56" t="s">
         <v>370</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="56" t="s">
         <v>376</v>
       </c>
     </row>
@@ -30869,7 +30892,7 @@
       <c r="C36" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="51" t="s">
         <v>374</v>
       </c>
       <c r="E36" s="33" t="s">
@@ -30886,7 +30909,7 @@
       <c r="C37" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="51" t="s">
         <v>416</v>
       </c>
       <c r="E37" s="33" t="s">
@@ -30903,7 +30926,7 @@
       <c r="C38" s="43" t="s">
         <v>415</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="51" t="s">
         <v>417</v>
       </c>
       <c r="E38" s="33" t="s">
@@ -30917,7 +30940,7 @@
       <c r="B39" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="51" t="s">
         <v>422</v>
       </c>
       <c r="E39" s="33" t="s">
@@ -30934,7 +30957,7 @@
       <c r="C40" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="51" t="s">
         <v>443</v>
       </c>
       <c r="E40" s="33" t="s">
@@ -30948,10 +30971,10 @@
       <c r="B41" s="47" t="s">
         <v>439</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="51" t="s">
         <v>441</v>
       </c>
       <c r="E41" s="33" t="s">
@@ -30980,8 +31003,8 @@
       <c r="B43" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="51" t="s">
         <v>411</v>
       </c>
       <c r="E43" s="33" t="s">
@@ -30989,10 +31012,18 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="33"/>
-      <c r="B44" s="47"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D45" s="43"/>
@@ -31006,434 +31037,435 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1F20C5-E431-4F51-B98A-61CA1E4D1DB8}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.37890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.234375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="26.76171875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.76171875" style="43"/>
+    <col min="1" max="1" width="17.37890625" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.234375" style="66" customWidth="1"/>
+    <col min="3" max="3" width="26.76171875" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="63" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6171875" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.76171875" style="66"/>
+    <col min="8" max="16384" width="8.76171875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="46" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7" s="64" customFormat="1" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A1" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="64" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="70"/>
+      <c r="F4" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="69" t="s">
         <v>436</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="33" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="69" t="s">
         <v>436</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="70"/>
+      <c r="F8" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="70"/>
+      <c r="F9" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="65" t="s">
         <v>429</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="70"/>
+      <c r="F11" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="69" t="s">
         <v>448</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="33" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="33" t="s">
+      <c r="G12" s="66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="69" t="s">
         <v>431</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="65" t="s">
         <v>433</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="33" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="69" t="s">
         <v>431</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="70"/>
+      <c r="F14" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="65" t="s">
         <v>427</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="66" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="65" t="s">
         <v>401</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="33" t="s">
+      <c r="E16" s="70"/>
+      <c r="F16" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="66" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="33" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="66" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="66" t="s">
         <v>419</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="69" t="s">
         <v>432</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="33" t="s">
+      <c r="E18" s="70"/>
+      <c r="F18" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="66" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="33" t="s">
+      <c r="C19" s="69"/>
+      <c r="D19" s="65" t="s">
         <v>451</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="33" t="s">
+      <c r="E19" s="70"/>
+      <c r="F19" s="65" t="s">
         <v>438</v>
       </c>
+      <c r="G19" s="66" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="33"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="33"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="65"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -37401,58 +37433,58 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="52" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>59</v>
       </c>
     </row>
@@ -37460,195 +37492,195 @@
       <c r="A6" t="s">
         <v>326</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="53"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
@@ -37706,7 +37738,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="56"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5"/>
@@ -41620,7 +41652,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>325</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -41631,7 +41663,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -41642,7 +41674,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -41656,7 +41688,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -41670,7 +41702,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -41681,7 +41713,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -41692,7 +41724,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>326</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -41703,7 +41735,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5" t="s">
         <v>96</v>
       </c>
@@ -41712,7 +41744,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="5" t="s">
         <v>112</v>
       </c>
@@ -41724,7 +41756,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="5" t="s">
         <v>125</v>
       </c>
@@ -41736,7 +41768,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="5" t="s">
         <v>130</v>
       </c>
@@ -41748,19 +41780,19 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="53"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="53"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="5" t="s">
         <v>137</v>
       </c>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9439EF09-85C8-4D83-9C3C-EA0A77597B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B3B7E-D72C-43A6-B8E8-A8F393FC7A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30083,8 +30083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B3B7E-D72C-43A6-B8E8-A8F393FC7A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617DCED-FC20-4CFB-9DF6-6F590D57812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,9 +1167,6 @@
     <t>LLEDALLON</t>
   </si>
   <si>
-    <t>LRESET</t>
-  </si>
-  <si>
     <t>1-16,2,5,10,20</t>
   </si>
   <si>
@@ -1234,6 +1231,9 @@
   </si>
   <si>
     <t>1,0,1,1,1,</t>
+  </si>
+  <si>
+    <t>LLEDALLOFF</t>
   </si>
 </sst>
 </file>
@@ -30084,7 +30084,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -30166,7 +30166,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>271</v>
@@ -30247,7 +30247,7 @@
         <v>371</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="3" t="s">
@@ -30268,7 +30268,7 @@
         <v>372</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="3" t="s">
@@ -30307,7 +30307,7 @@
         <v>105</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
@@ -30341,7 +30341,7 @@
         <v>166</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>281</v>
@@ -30362,7 +30362,7 @@
         <v>166</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>281</v>
@@ -30387,10 +30387,10 @@
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>265</v>
@@ -30408,10 +30408,10 @@
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F16" s="66" t="s">
         <v>266</v>
@@ -30425,7 +30425,7 @@
         <v>294</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>295</v>
@@ -30443,7 +30443,7 @@
         <v>294</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>301</v>
@@ -30461,7 +30461,7 @@
         <v>294</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C19" s="59" t="s">
         <v>359</v>
@@ -30479,7 +30479,7 @@
         <v>294</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C20" s="59" t="s">
         <v>359</v>
@@ -30497,7 +30497,7 @@
         <v>294</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C21" s="59" t="s">
         <v>359</v>
@@ -30515,7 +30515,7 @@
         <v>294</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>300</v>
@@ -30533,7 +30533,7 @@
         <v>151</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="60" t="s">
@@ -30551,7 +30551,7 @@
         <v>151</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="60" t="s">
@@ -30602,7 +30602,7 @@
         <v>87</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>357</v>
@@ -30620,7 +30620,7 @@
         <v>87</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C28" s="54" t="s">
         <v>355</v>
@@ -30638,14 +30638,14 @@
         <v>87</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="54" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F29" s="33" t="s">
         <v>268</v>
@@ -30656,7 +30656,7 @@
         <v>98</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="70">

--- a/SN7 i2c & pins.xlsx
+++ b/SN7 i2c & pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\targetarchitecture\esp32-rainbow-sparkle-unicorn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617DCED-FC20-4CFB-9DF6-6F590D57812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E86F44-C28C-4519-9712-2C5E2ABA2C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1355,7 +1355,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1434,6 +1434,12 @@
         <bgColor rgb="FF92CDDC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1463,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1582,6 +1588,9 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30083,7 +30092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B3CAF-F768-478D-8F53-9C6BB6D54AC2}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -36806,8 +36815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1006EC9-F903-45E1-9B2E-3BBE97776EFB}">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -36984,7 +36993,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="71" t="s">
         <v>308</v>
       </c>
       <c r="B12" s="51" t="s">
@@ -37014,7 +37023,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="71" t="s">
         <v>306</v>
       </c>
       <c r="B14" s="51" t="s">
